--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-MapWater.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-MapWater.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD4664-7414-4C1F-8F61-5D18D7F3A448}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5024151-213C-4C29-904D-C529E965377F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14001,15 +14001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>399097</xdr:colOff>
+      <xdr:colOff>94297</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>141922</xdr:rowOff>
+      <xdr:rowOff>96202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>115252</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:rowOff>122872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14037,15 +14037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>67627</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:colOff>57147</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>122872</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>20002</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14073,15 +14073,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>515302</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>29527</xdr:rowOff>
+      <xdr:colOff>94297</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>503872</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>58102</xdr:rowOff>
+      <xdr:colOff>86677</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14698,8 +14698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E148071-9E40-4E92-8C84-9932058B7915}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-MapWater.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-MapWater.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5024151-213C-4C29-904D-C529E965377F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833464E-556E-41EC-8C18-02CB3C7D15DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1312,6 +1312,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Goal Completion (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1325,7 +1350,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1372,6 +1397,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-7CBF-41B2-86CB-4A17625890DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7CBF-41B2-86CB-4A17625890DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7CBF-41B2-86CB-4A17625890DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$5</c:f>
@@ -1461,7 +1546,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1606,6 +1691,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Actions Performed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (number of actions)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1619,7 +1734,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1666,6 +1781,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-2720-4231-9BDF-24671824BE34}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2720-4231-9BDF-24671824BE34}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2720-4231-9BDF-24671824BE34}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$5</c:f>
@@ -1755,7 +1930,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1900,6 +2075,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Remaining Health (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1913,7 +2113,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1960,6 +2160,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-208F-4E8E-A8B0-BDAE6D25CF47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-208F-4E8E-A8B0-BDAE6D25CF47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-208F-4E8E-A8B0-BDAE6D25CF47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$5</c:f>
@@ -2049,7 +2309,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2194,6 +2454,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Remaining Energy (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2207,7 +2492,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2254,6 +2539,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E67C-4E08-BD67-3E3806E3502E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E67C-4E08-BD67-3E3806E3502E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E67C-4E08-BD67-3E3806E3502E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$5</c:f>
@@ -2343,7 +2688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14698,8 +15043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E148071-9E40-4E92-8C84-9932058B7915}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
